--- a/public/local/budgetSubjectTemplate.xlsx
+++ b/public/local/budgetSubjectTemplate.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8AD1C3-D5D0-764A-8BA0-16AF50BE713E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C3249B-F519-654E-9FE9-EFED49F70861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="预算科目模板" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ledgerAccountCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>corporationCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>科目代码(</t>
     </r>
@@ -78,6 +70,12 @@
       </rPr>
       <t>)【文本类型】</t>
     </r>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -438,7 +436,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="25" customHeight="1"/>
@@ -450,18 +448,18 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" ht="20.5" hidden="1" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="19">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
